--- a/WebClient/wwwroot/Template/SampleImportExam.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportExam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125CE346-FDCB-43C0-B1F7-152A37388D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60B76A5-F6E1-4A0B-84EC-A4ADF94CE3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74D80D17-1BBB-4E21-94B6-17FC5EFB1620}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,60 +34,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>EmailFe</t>
-  </si>
-  <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Trungkute</t>
-  </si>
-  <si>
-    <t>Trungkute@fe.edu.vn</t>
-  </si>
-  <si>
-    <t>23-12-2001</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>haiphong</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>0858676478</t>
-  </si>
-  <si>
-    <t>0858676479</t>
-  </si>
-  <si>
-    <t>trungpxhs160636@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>trungpxhs160637@fpt.edu.vn</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>PRN211</t>
+  </si>
+  <si>
+    <t>minhnh@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>EXAM008</t>
+  </si>
+  <si>
+    <t>Exam Code</t>
+  </si>
+  <si>
+    <t>Người tạo</t>
+  </si>
+  <si>
+    <t>Đợt thi</t>
+  </si>
+  <si>
+    <t>Hình Thức Thi</t>
+  </si>
+  <si>
+    <t>Cơ Sở</t>
+  </si>
+  <si>
+    <t>Tên Môn</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kì </t>
+  </si>
+  <si>
+    <t>FA24</t>
+  </si>
+  <si>
+    <t>Thời Gian Thi</t>
+  </si>
+  <si>
+    <t>Thời lượng thi</t>
+  </si>
+  <si>
+    <t>60p</t>
+  </si>
+  <si>
+    <t>EXAM009</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>90p</t>
+  </si>
+  <si>
+    <t>10w</t>
+  </si>
+  <si>
+    <t>bl5</t>
   </si>
 </sst>
 </file>
@@ -132,11 +150,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,101 +468,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DD6E49-BE44-4977-8950-EC653A77AF28}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC8E54-C692-45C5-93AF-98FE2E1AC82E}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="33" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45580</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45590</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45454</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45580</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45590</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
-        <v>16</v>
+      <c r="K3" s="2">
+        <v>45454</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{AB0C0FCB-D789-4DEA-BC5C-A9CAC78A3D3A}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{AF0EFDA9-485C-49AB-881E-5F6141F7991E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{AD99D3CE-1CC3-41EB-B260-258658F394EA}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{5A45251D-7109-4202-AD18-D7AA4A002476}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{3B2104F8-297F-4C8A-895B-C92654841911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/WebClient/wwwroot/Template/SampleImportExam.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportExam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60B76A5-F6E1-4A0B-84EC-A4ADF94CE3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5751D4-44DB-4503-A953-CA7C9B2CABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,23 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Ha Noi</t>
   </si>
   <si>
-    <t>PRN211</t>
-  </si>
-  <si>
     <t>minhnh@fpt.edu.vn</t>
   </si>
   <si>
     <t>EXAM008</t>
   </si>
   <si>
-    <t>Exam Code</t>
-  </si>
-  <si>
     <t>Người tạo</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Thời lượng thi</t>
   </si>
   <si>
-    <t>60p</t>
-  </si>
-  <si>
     <t>EXAM009</t>
   </si>
   <si>
@@ -99,13 +90,28 @@
     <t>Da Nang</t>
   </si>
   <si>
-    <t>90p</t>
-  </si>
-  <si>
-    <t>10w</t>
-  </si>
-  <si>
-    <t>bl5</t>
+    <t>Block10</t>
+  </si>
+  <si>
+    <t>Block5</t>
+  </si>
+  <si>
+    <t>60'</t>
+  </si>
+  <si>
+    <t>90'</t>
+  </si>
+  <si>
+    <t>Mã đề thi</t>
+  </si>
+  <si>
+    <t>ADY201m</t>
+  </si>
+  <si>
+    <t>AID301c</t>
+  </si>
+  <si>
+    <t>Số thứ tự</t>
   </si>
 </sst>
 </file>
@@ -469,136 +475,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC8E54-C692-45C5-93AF-98FE2E1AC82E}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45580</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45590</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45580</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45590</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>45580</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>45590</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
         <v>45454</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{5A45251D-7109-4202-AD18-D7AA4A002476}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{3B2104F8-297F-4C8A-895B-C92654841911}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5A45251D-7109-4202-AD18-D7AA4A002476}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{3B2104F8-297F-4C8A-895B-C92654841911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WebClient/wwwroot/Template/SampleImportExam.xlsx
+++ b/WebClient/wwwroot/Template/SampleImportExam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Capstone\SEP490\SEP\New folder\New folder\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\SEP490_G47_Exam_Review\WebClient\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810A1B8A-B46A-4AC6-9A31-8FC7247C7D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685C10BB-B47E-42E7-B164-883A6523C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{42B5398A-6E28-4111-803B-A4F154C3F2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Ha Noi</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Exam Code</t>
   </si>
   <si>
-    <t>Người tạo</t>
-  </si>
-  <si>
     <t>Đợt thi</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>FA24</t>
   </si>
   <si>
-    <t>Thời Gian Thi</t>
-  </si>
-  <si>
     <t>Thời lượng thi</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
   </si>
   <si>
     <t>Stt</t>
-  </si>
-  <si>
-    <t>tuanlmhe161245@fpt.edu.vn</t>
   </si>
   <si>
     <t>EXAM0082</t>
@@ -115,18 +106,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,19 +132,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,146 +452,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC8E54-C692-45C5-93AF-98FE2E1AC82E}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45575</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45608</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
         <v>45575</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I3" s="1">
         <v>45608</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2">
-        <v>45638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45575</v>
-      </c>
-      <c r="J3" s="2">
-        <v>45608</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2">
-        <v>45638</v>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5A45251D-7109-4202-AD18-D7AA4A002476}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>